--- a/mereni_MD/Prumery/Sval1.xlsx
+++ b/mereni_MD/Prumery/Sval1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MarekDarsaU\Desktop\mereni_MD\Prumery\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MarekU\Programing\Projekt-5\mereni_MD\Prumery\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F9D70F6-DA44-44A5-88FF-EFF403B2505E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8394FDF0-874C-4F1F-82F0-210DB7A7BBB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -389,48 +389,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:G6"/>
+  <dimension ref="A2:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
-        <f>AVERAGE(A$4:A$16)</f>
-        <v>23.955666666666669</v>
+        <f>AVERAGE(A$4:A$15)</f>
+        <v>23.865166666666667</v>
       </c>
       <c r="B2">
-        <f t="shared" ref="B2:G2" si="0">AVERAGE(B$4:B$16)</f>
-        <v>571.26</v>
+        <f>AVERAGE(B$4:B$15)</f>
+        <v>577.51666666666665</v>
       </c>
       <c r="C2">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(C$4:C$15)</f>
         <v>0.99960000000000004</v>
       </c>
       <c r="E2">
-        <f t="shared" si="0"/>
-        <v>3.8848666666666669</v>
+        <f>AVERAGE(E$4:E$15)</f>
+        <v>3.8744000000000001</v>
       </c>
       <c r="F2">
-        <f t="shared" si="0"/>
-        <v>-3.2606666666666668</v>
+        <f>AVERAGE(F$4:F$15)</f>
+        <v>-2.5647000000000002</v>
       </c>
       <c r="G2">
-        <f t="shared" si="0"/>
-        <v>0.99836666666666662</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
+        <f>AVERAGE(G$4:G$15)</f>
+        <v>0.99878333333333336</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -450,64 +450,124 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
+        <v>23.786999999999999</v>
+      </c>
+      <c r="B4">
+        <v>581.22</v>
+      </c>
+      <c r="C4">
+        <v>0.99960000000000004</v>
+      </c>
+      <c r="E4">
+        <v>3.8509000000000002</v>
+      </c>
+      <c r="F4">
+        <v>-2.2953999999999999</v>
+      </c>
+      <c r="G4">
+        <v>0.99909999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>24.123999999999999</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <v>578.39</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>0.99970000000000003</v>
       </c>
-      <c r="E4">
+      <c r="E5">
         <v>3.9173</v>
       </c>
-      <c r="F4">
+      <c r="F5">
         <v>-2.0369000000000002</v>
       </c>
-      <c r="G4">
+      <c r="G5">
         <v>0.997</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>23.832000000000001</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>557.41999999999996</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>0.99939999999999996</v>
       </c>
-      <c r="E5">
+      <c r="E6">
         <v>3.8498000000000001</v>
       </c>
-      <c r="F5">
+      <c r="F6">
         <v>-5.3788999999999998</v>
       </c>
-      <c r="G5">
+      <c r="G6">
         <v>0.99860000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>23.911000000000001</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>577.97</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>0.99970000000000003</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <v>3.8875000000000002</v>
       </c>
-      <c r="F6">
+      <c r="F7">
         <v>-2.3662000000000001</v>
       </c>
-      <c r="G6">
+      <c r="G7">
         <v>0.99950000000000006</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>23.89</v>
+      </c>
+      <c r="B8">
+        <v>585.35</v>
+      </c>
+      <c r="C8">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="E8">
+        <v>3.8978000000000002</v>
+      </c>
+      <c r="F8">
+        <v>-1.5814999999999999</v>
+      </c>
+      <c r="G8">
+        <v>0.99929999999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>23.646999999999998</v>
+      </c>
+      <c r="B9">
+        <v>584.75</v>
+      </c>
+      <c r="C9">
+        <v>0.99939999999999996</v>
+      </c>
+      <c r="E9">
+        <v>3.8431000000000002</v>
+      </c>
+      <c r="F9">
+        <v>-1.7293000000000001</v>
+      </c>
+      <c r="G9">
+        <v>0.99919999999999998</v>
       </c>
     </row>
   </sheetData>

--- a/mereni_MD/Prumery/Sval1.xlsx
+++ b/mereni_MD/Prumery/Sval1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MarekU\Programing\Projekt-5\mereni_MD\Prumery\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8394FDF0-874C-4F1F-82F0-210DB7A7BBB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02FF1E55-D63B-4FAC-964D-DB117F706D8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -392,7 +392,7 @@
   <dimension ref="A2:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -407,7 +407,7 @@
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <f>AVERAGE(A$4:A$15)</f>
-        <v>23.865166666666667</v>
+        <v>2.3865166666666666</v>
       </c>
       <c r="B2">
         <f>AVERAGE(B$4:B$15)</f>
@@ -419,7 +419,7 @@
       </c>
       <c r="E2">
         <f>AVERAGE(E$4:E$15)</f>
-        <v>3.8744000000000001</v>
+        <v>0.38744000000000001</v>
       </c>
       <c r="F2">
         <f>AVERAGE(F$4:F$15)</f>
@@ -452,7 +452,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>23.786999999999999</v>
+        <v>2.3786999999999998</v>
       </c>
       <c r="B4">
         <v>581.22</v>
@@ -461,7 +461,7 @@
         <v>0.99960000000000004</v>
       </c>
       <c r="E4">
-        <v>3.8509000000000002</v>
+        <v>0.38508999999999999</v>
       </c>
       <c r="F4">
         <v>-2.2953999999999999</v>
@@ -472,7 +472,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>24.123999999999999</v>
+        <v>2.4123999999999999</v>
       </c>
       <c r="B5">
         <v>578.39</v>
@@ -481,7 +481,7 @@
         <v>0.99970000000000003</v>
       </c>
       <c r="E5">
-        <v>3.9173</v>
+        <v>0.39173000000000002</v>
       </c>
       <c r="F5">
         <v>-2.0369000000000002</v>
@@ -492,7 +492,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>23.832000000000001</v>
+        <v>2.3832</v>
       </c>
       <c r="B6">
         <v>557.41999999999996</v>
@@ -501,7 +501,7 @@
         <v>0.99939999999999996</v>
       </c>
       <c r="E6">
-        <v>3.8498000000000001</v>
+        <v>0.38497999999999999</v>
       </c>
       <c r="F6">
         <v>-5.3788999999999998</v>
@@ -512,7 +512,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>23.911000000000001</v>
+        <v>2.3910999999999998</v>
       </c>
       <c r="B7">
         <v>577.97</v>
@@ -521,7 +521,7 @@
         <v>0.99970000000000003</v>
       </c>
       <c r="E7">
-        <v>3.8875000000000002</v>
+        <v>0.38874999999999998</v>
       </c>
       <c r="F7">
         <v>-2.3662000000000001</v>
@@ -532,7 +532,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>23.89</v>
+        <v>2.3889999999999998</v>
       </c>
       <c r="B8">
         <v>585.35</v>
@@ -541,7 +541,7 @@
         <v>0.99980000000000002</v>
       </c>
       <c r="E8">
-        <v>3.8978000000000002</v>
+        <v>0.38978000000000002</v>
       </c>
       <c r="F8">
         <v>-1.5814999999999999</v>
@@ -552,7 +552,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>23.646999999999998</v>
+        <v>2.3647</v>
       </c>
       <c r="B9">
         <v>584.75</v>
@@ -561,7 +561,7 @@
         <v>0.99939999999999996</v>
       </c>
       <c r="E9">
-        <v>3.8431000000000002</v>
+        <v>0.38430999999999998</v>
       </c>
       <c r="F9">
         <v>-1.7293000000000001</v>
